--- a/Base de données/PAYS_DA.xlsx
+++ b/Base de données/PAYS_DA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="42">
   <si>
     <t>idPAYS_DA</t>
   </si>
@@ -28,6 +28,120 @@
   </si>
   <si>
     <t>occurrences_PAYS_DA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>1994-2005</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>NEW-ZEALAND</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>INSERT INTO PAYS_DA VALUES (</t>
+  </si>
+  <si>
+    <t>,'</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>',</t>
+  </si>
+  <si>
+    <t>);</t>
   </si>
 </sst>
 </file>
@@ -63,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,26 +481,2114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>148</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
